--- a/crm接口文档/用户管理/获取用户详情信息.xlsx
+++ b/crm接口文档/用户管理/获取用户详情信息.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="63">
   <si>
     <t>URL</t>
   </si>
@@ -233,6 +233,18 @@
   </si>
   <si>
     <t>用户出生日期</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>userBirthdayStr</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户出生日期（字符串，用于显示)</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -404,7 +416,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -435,6 +447,51 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -451,45 +508,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -796,10 +814,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="F23" sqref="F23:H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -813,91 +831,91 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
       <c r="F3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="12">
+      <c r="G3" s="27">
         <v>8080</v>
       </c>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
     </row>
     <row r="4" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
       <c r="F4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
     </row>
     <row r="5" spans="1:10" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
       <c r="E5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
       <c r="I5" s="2" t="s">
         <v>13</v>
       </c>
@@ -909,19 +927,19 @@
       <c r="A6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
       <c r="E6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
       <c r="I6" s="6" t="s">
         <v>13</v>
       </c>
@@ -931,19 +949,19 @@
       <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
       <c r="E7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="F7" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
       <c r="I7" s="2" t="s">
         <v>13</v>
       </c>
@@ -955,19 +973,19 @@
       <c r="A8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
       <c r="E8" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="17" t="s">
+      <c r="F8" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
       <c r="I8" s="7" t="s">
         <v>13</v>
       </c>
@@ -977,19 +995,19 @@
       <c r="A9" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
       <c r="E9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="20" t="s">
+      <c r="F9" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
       <c r="I9" s="5" t="s">
         <v>24</v>
       </c>
@@ -999,19 +1017,19 @@
       <c r="A10" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
       <c r="E10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="17" t="s">
+      <c r="F10" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
       <c r="I10" s="5" t="s">
         <v>24</v>
       </c>
@@ -1021,19 +1039,19 @@
       <c r="A11" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="22"/>
-      <c r="D11" s="23"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="14"/>
       <c r="E11" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="24" t="s">
+      <c r="F11" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="G11" s="25"/>
-      <c r="H11" s="26"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="19"/>
       <c r="I11" s="6" t="s">
         <v>13</v>
       </c>
@@ -1043,19 +1061,19 @@
       <c r="A12" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="22"/>
-      <c r="D12" s="23"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="14"/>
       <c r="E12" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="24" t="s">
+      <c r="F12" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="G12" s="25"/>
-      <c r="H12" s="26"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="19"/>
       <c r="I12" s="6" t="s">
         <v>13</v>
       </c>
@@ -1065,19 +1083,19 @@
       <c r="A13" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="22"/>
-      <c r="D13" s="23"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="14"/>
       <c r="E13" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F13" s="24" t="s">
+      <c r="F13" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="G13" s="27"/>
-      <c r="H13" s="28"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="17"/>
       <c r="I13" s="6" t="s">
         <v>13</v>
       </c>
@@ -1087,19 +1105,19 @@
       <c r="A14" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="22"/>
-      <c r="D14" s="23"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="14"/>
       <c r="E14" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="F14" s="24" t="s">
+      <c r="F14" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="G14" s="27"/>
-      <c r="H14" s="28"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="17"/>
       <c r="I14" s="6" t="s">
         <v>13</v>
       </c>
@@ -1109,19 +1127,19 @@
       <c r="A15" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="22"/>
-      <c r="D15" s="23"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="14"/>
       <c r="E15" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="F15" s="24" t="s">
+      <c r="F15" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="G15" s="27"/>
-      <c r="H15" s="28"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="17"/>
       <c r="I15" s="6" t="s">
         <v>13</v>
       </c>
@@ -1131,19 +1149,19 @@
       <c r="A16" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="22"/>
-      <c r="D16" s="23"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="14"/>
       <c r="E16" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="F16" s="24" t="s">
+      <c r="F16" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="G16" s="27"/>
-      <c r="H16" s="28"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="17"/>
       <c r="I16" s="6" t="s">
         <v>13</v>
       </c>
@@ -1153,19 +1171,19 @@
       <c r="A17" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="22"/>
-      <c r="D17" s="23"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="14"/>
       <c r="E17" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="F17" s="24" t="s">
+      <c r="F17" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="G17" s="27"/>
-      <c r="H17" s="28"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="17"/>
       <c r="I17" s="6" t="s">
         <v>13</v>
       </c>
@@ -1175,19 +1193,19 @@
       <c r="A18" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="22"/>
-      <c r="D18" s="23"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="14"/>
       <c r="E18" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="F18" s="24" t="s">
+      <c r="F18" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="G18" s="27"/>
-      <c r="H18" s="28"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="17"/>
       <c r="I18" s="6" t="s">
         <v>13</v>
       </c>
@@ -1197,19 +1215,19 @@
       <c r="A19" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="22"/>
-      <c r="D19" s="23"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="14"/>
       <c r="E19" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="F19" s="24" t="s">
+      <c r="F19" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="G19" s="27"/>
-      <c r="H19" s="28"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="17"/>
       <c r="I19" s="6" t="s">
         <v>13</v>
       </c>
@@ -1219,19 +1237,19 @@
       <c r="A20" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="C20" s="22"/>
-      <c r="D20" s="23"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="14"/>
       <c r="E20" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="F20" s="24" t="s">
+      <c r="F20" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="G20" s="27"/>
-      <c r="H20" s="28"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="17"/>
       <c r="I20" s="6" t="s">
         <v>13</v>
       </c>
@@ -1241,19 +1259,19 @@
       <c r="A21" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="C21" s="22"/>
-      <c r="D21" s="23"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="14"/>
       <c r="E21" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="F21" s="24" t="s">
+      <c r="F21" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="G21" s="27"/>
-      <c r="H21" s="28"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="17"/>
       <c r="I21" s="6" t="s">
         <v>13</v>
       </c>
@@ -1263,26 +1281,82 @@
       <c r="A22" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="C22" s="22"/>
-      <c r="D22" s="23"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="14"/>
       <c r="E22" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="F22" s="24" t="s">
+      <c r="F22" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="G22" s="27"/>
-      <c r="H22" s="28"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="17"/>
       <c r="I22" s="6" t="s">
         <v>13</v>
       </c>
       <c r="J22" s="8"/>
     </row>
+    <row r="23" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" s="13"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="G23" s="16"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J23" s="10"/>
+    </row>
   </sheetData>
-  <mergeCells count="42">
+  <mergeCells count="44">
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="F17:H17"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="F21:H21"/>
     <mergeCell ref="B22:D22"/>
@@ -1293,38 +1367,6 @@
     <mergeCell ref="F19:H19"/>
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="F20:H20"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="G4:J4"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
